--- a/rgStandardized_worksheet.xlsx
+++ b/rgStandardized_worksheet.xlsx
@@ -6,10 +6,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelrosin/Dropbox/_UNC/_Draft_Paper1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelrosin/Dropbox/_UNC/_Draft_Paper1/rgStandardized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A9F18F-891E-5542-8627-B7A1C2C763C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F05D6-CD51-8746-B375-501C0C8B22F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9FB095F8-04E3-A34D-8D2C-66F28D0EA142}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>Stratum</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Instructions: Data are entered in the orange input cells and the main results are given at the table at the top-right. Intermediate results are in the grey calculation cells and, except for the estimates of sensitivity and specificity, should not be reported.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Written to accompany the manuscript “Estimating Seroprevalence of SARS-CoV-2”. These spreadsheets may be shared freely. No warranty is implied about the accuracy of the results. Correspondence to srosin@live.unc.edu.   </t>
   </si>
 </sst>
 </file>
@@ -273,17 +276,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1"/>
@@ -300,6 +297,12 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -856,7 +859,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,118 +876,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="str">
+      <c r="G2" s="11" t="str">
         <f>IF(H12="","",(H15+H12-1)/(C12+H12-1))</f>
         <v/>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="22" t="str">
+      <c r="G3" s="20" t="str">
         <f>IF(F16="","",(D12+I12+SUM(F16:F95))/(C12+H12-1)^2)</f>
         <v/>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14" t="str">
+      <c r="G4" s="12" t="str">
         <f>IF(G3="","",G2-NORMSINV(0.975)*SQRT(G3))</f>
         <v/>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="13" t="str">
         <f>IF(G3="","",G2+NORMSINV(0.975)*SQRT(G3))</f>
         <v/>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="21"/>
+      <c r="F10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -996,7 +999,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
@@ -1010,56 +1013,56 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12" t="str">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10" t="str">
         <f>IF(A12="","",B12/A12)</f>
         <v/>
       </c>
-      <c r="D12" s="19" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(A12="","",G2^2*C12*(1-C12)/A12)</f>
         <v/>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="str">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="str">
         <f>IF(F12="","",1-(G12/F12))</f>
         <v/>
       </c>
-      <c r="I12" s="21" t="str">
+      <c r="I12" s="19" t="str">
         <f>IF(F12="","",(1-G2)^2*H12*(1-H12)/F12)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="11" t="str">
+      <c r="H15" s="9" t="str">
         <f>IF(E16="","",SUMPRODUCT(B16:B95,E16:E95))</f>
         <v/>
       </c>
@@ -1068,1361 +1071,1361 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="str">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="str">
         <f>IF(C16="","",D16/C16)</f>
         <v/>
       </c>
-      <c r="F16" s="12" t="str">
+      <c r="F16" s="10" t="str">
         <f>IF(C16="","",B16^2*E16*(1-E16)/C16)</f>
         <v/>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="str">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="str">
         <f t="shared" ref="E17:E80" si="0">IF(C17="","",D17/C17)</f>
         <v/>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F17" s="10" t="str">
         <f t="shared" ref="F17:F80" si="1">IF(C17="","",B17^2*E17*(1-E17)/C17)</f>
         <v/>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>16</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>17</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>18</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>19</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="12"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>21</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>22</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="12"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>23</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>24</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="12"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>25</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>26</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" s="12"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>27</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>28</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>29</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F44" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>30</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F45" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="12"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>31</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" s="12"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>32</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F47" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="12"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>33</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F48" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G48" s="12"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>34</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F49" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" s="12"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>35</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F50" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="12"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>36</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F51" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="12"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>37</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F52" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" s="12"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>38</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F53" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" s="12"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F53" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>39</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F54" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G54" s="12"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F55" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" s="12"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>41</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F56" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="12"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F56" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>42</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F57" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="12"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>43</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F58" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G58" s="12"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F58" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>44</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F59" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G59" s="12"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F59" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>45</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F60" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G60" s="12"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>46</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F61" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G61" s="12"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>47</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F62" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G62" s="12"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F62" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>48</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F63" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G63" s="12"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>49</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F64" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G64" s="12"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>50</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F65" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G65" s="12"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F65" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>51</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F66" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G66" s="12"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F66" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>52</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F67" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G67" s="12"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F67" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>53</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F68" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G68" s="12"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F68" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>54</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F69" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G69" s="12"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F69" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>55</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F70" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G70" s="12"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F70" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>56</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F71" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G71" s="12"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F71" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>57</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F72" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G72" s="12"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F72" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>58</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F73" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G73" s="12"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F73" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>59</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F74" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G74" s="12"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F74" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>60</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F75" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G75" s="12"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F75" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>61</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F76" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G76" s="12"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F76" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>62</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F77" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G77" s="12"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F77" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>63</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F78" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G78" s="12"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F78" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>64</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F79" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G79" s="12"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F79" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>65</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F80" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G80" s="12"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F80" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>66</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11" t="str">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9" t="str">
         <f t="shared" ref="E81:E95" si="2">IF(C81="","",D81/C81)</f>
         <v/>
       </c>
-      <c r="F81" s="12" t="str">
+      <c r="F81" s="10" t="str">
         <f t="shared" ref="F81:F95" si="3">IF(C81="","",B81^2*E81*(1-E81)/C81)</f>
         <v/>
       </c>
-      <c r="G81" s="12"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>67</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11" t="str">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F82" s="12" t="str">
+      <c r="F82" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G82" s="12"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>68</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11" t="str">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F83" s="12" t="str">
+      <c r="F83" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G83" s="12"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>69</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11" t="str">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F84" s="12" t="str">
+      <c r="F84" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G84" s="12"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>70</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11" t="str">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F85" s="12" t="str">
+      <c r="F85" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G85" s="12"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>71</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11" t="str">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F86" s="12" t="str">
+      <c r="F86" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G86" s="12"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>72</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11" t="str">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F87" s="12" t="str">
+      <c r="F87" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G87" s="12"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>73</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11" t="str">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F88" s="12" t="str">
+      <c r="F88" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G88" s="12"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>74</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11" t="str">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F89" s="12" t="str">
+      <c r="F89" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G89" s="12"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>75</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11" t="str">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F90" s="12" t="str">
+      <c r="F90" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G90" s="12"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>76</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11" t="str">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F91" s="12" t="str">
+      <c r="F91" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G91" s="12"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>77</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11" t="str">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F92" s="12" t="str">
+      <c r="F92" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G92" s="12"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>78</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11" t="str">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F93" s="12" t="str">
+      <c r="F93" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G93" s="12"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>79</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11" t="str">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F94" s="12" t="str">
+      <c r="F94" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G94" s="12"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>80</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11" t="str">
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F95" s="12" t="str">
+      <c r="F95" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G95" s="12"/>
+      <c r="G95" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2459,118 +2462,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <f>IF(H12="","",(H15+H12-1)/(C12+H12-1))</f>
         <v>0.31457664233576638</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <f>IF(F16="","",(D12+I12+SUM(F16:F95))/(C12+H12-1)^2)</f>
         <v>2.228294749180685E-3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <f>IF(G3="","",G2-NORMSINV(0.975)*SQRT(G3))</f>
         <v>0.22205690109452347</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f>IF(G3="","",G2+NORMSINV(0.975)*SQRT(G3))</f>
         <v>0.40709638357700928</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="21"/>
+      <c r="F10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -2582,7 +2585,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
@@ -2596,64 +2599,64 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>40</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>40</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f>IF(A12="","",B12/A12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <f>IF(A12="","",G2^2*C12*(1-C12)/A12)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>277</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>3</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f>IF(F12="","",1-(G12/F12))</f>
         <v>0.98916967509025266</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <f>IF(F12="","",(1-G2)^2*H12*(1-H12)/F12)</f>
         <v>1.8169806846030277E-5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <f>IF(E16="","",SUMPRODUCT(B16:B95,E16:E95))</f>
         <v>0.32200000000000001</v>
       </c>
@@ -2662,1385 +2665,1385 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>0.2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <f>IF(C16="","",D16/C16)</f>
         <v>0.3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <f>IF(C16="","",B16^2*E16*(1-E16)/C16)</f>
         <v>8.4000000000000014E-4</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>0.3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>20</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <f t="shared" ref="E17:E80" si="0">IF(C17="","",D17/C17)</f>
         <v>0.1</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <f t="shared" ref="F17:F80" si="1">IF(C17="","",B17^2*E17*(1-E17)/C17)</f>
         <v>4.0499999999999998E-4</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>0.2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>50</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>28</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <f t="shared" si="1"/>
         <v>1.9712000000000004E-4</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>0.3</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>30</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>12</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <f t="shared" si="1"/>
         <v>7.1999999999999994E-4</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>16</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>17</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>18</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>19</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="12"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>21</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>22</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="12"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>23</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>24</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="12"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>25</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>26</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" s="12"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>27</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>28</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>29</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F44" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>30</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F45" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="12"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>31</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" s="12"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>32</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F47" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="12"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>33</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F48" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G48" s="12"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>34</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F49" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" s="12"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>35</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F50" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="12"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>36</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F51" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="12"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>37</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F52" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" s="12"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>38</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F53" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" s="12"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F53" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>39</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F54" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G54" s="12"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F55" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" s="12"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>41</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F56" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="12"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F56" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>42</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F57" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="12"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>43</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F58" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G58" s="12"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F58" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>44</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F59" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G59" s="12"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F59" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>45</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F60" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G60" s="12"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>46</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F61" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G61" s="12"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>47</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F62" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G62" s="12"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F62" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>48</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F63" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G63" s="12"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>49</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F64" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G64" s="12"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>50</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F65" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G65" s="12"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F65" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>51</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F66" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G66" s="12"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F66" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>52</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F67" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G67" s="12"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F67" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>53</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F68" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G68" s="12"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F68" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>54</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F69" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G69" s="12"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F69" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>55</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F70" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G70" s="12"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F70" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>56</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F71" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G71" s="12"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F71" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>57</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F72" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G72" s="12"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F72" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>58</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F73" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G73" s="12"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F73" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>59</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F74" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G74" s="12"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F74" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>60</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F75" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G75" s="12"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F75" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>61</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F76" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G76" s="12"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F76" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>62</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F77" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G77" s="12"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F77" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>63</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F78" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G78" s="12"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F78" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>64</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F79" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G79" s="12"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F79" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>65</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F80" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G80" s="12"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F80" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>66</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11" t="str">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9" t="str">
         <f t="shared" ref="E81:E95" si="2">IF(C81="","",D81/C81)</f>
         <v/>
       </c>
-      <c r="F81" s="12" t="str">
+      <c r="F81" s="10" t="str">
         <f t="shared" ref="F81:F95" si="3">IF(C81="","",B81^2*E81*(1-E81)/C81)</f>
         <v/>
       </c>
-      <c r="G81" s="12"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>67</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11" t="str">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F82" s="12" t="str">
+      <c r="F82" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G82" s="12"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>68</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11" t="str">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F83" s="12" t="str">
+      <c r="F83" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G83" s="12"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>69</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11" t="str">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F84" s="12" t="str">
+      <c r="F84" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G84" s="12"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>70</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11" t="str">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F85" s="12" t="str">
+      <c r="F85" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G85" s="12"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>71</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11" t="str">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F86" s="12" t="str">
+      <c r="F86" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G86" s="12"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>72</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11" t="str">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F87" s="12" t="str">
+      <c r="F87" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G87" s="12"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>73</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11" t="str">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F88" s="12" t="str">
+      <c r="F88" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G88" s="12"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>74</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11" t="str">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F89" s="12" t="str">
+      <c r="F89" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G89" s="12"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>75</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11" t="str">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F90" s="12" t="str">
+      <c r="F90" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G90" s="12"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>76</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11" t="str">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F91" s="12" t="str">
+      <c r="F91" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G91" s="12"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>77</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11" t="str">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F92" s="12" t="str">
+      <c r="F92" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G92" s="12"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>78</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11" t="str">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F93" s="12" t="str">
+      <c r="F93" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G93" s="12"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>79</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11" t="str">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F94" s="12" t="str">
+      <c r="F94" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G94" s="12"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>80</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="11" t="str">
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F95" s="12" t="str">
+      <c r="F95" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G95" s="12"/>
+      <c r="G95" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/rgStandardized_worksheet.xlsx
+++ b/rgStandardized_worksheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelrosin/Dropbox/_UNC/_Draft_Paper1/rgStandardized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F05D6-CD51-8746-B375-501C0C8B22F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6CAFDE-789A-B84D-ACDA-8D08CF530869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{9FB095F8-04E3-A34D-8D2C-66F28D0EA142}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9FB095F8-04E3-A34D-8D2C-66F28D0EA142}"/>
   </bookViews>
   <sheets>
     <sheet name="standardized Rogan-Gladen" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Stratum</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>Point estimate</t>
-  </si>
-  <si>
-    <t>95% CI, lower bound</t>
-  </si>
-  <si>
-    <t>95% CI, upper bound</t>
   </si>
   <si>
     <t>Sensitivity estimate</t>
@@ -107,13 +101,22 @@
     <t>Instructions: Data are entered in the orange input cells and the main results are given at the table at the top-right. Intermediate results are in the grey calculation cells and, except for the estimates of sensitivity and specificity, should not be reported.</t>
   </si>
   <si>
-    <t xml:space="preserve">Written to accompany the manuscript “Estimating Seroprevalence of SARS-CoV-2”. These spreadsheets may be shared freely. No warranty is implied about the accuracy of the results. Correspondence to srosin@live.unc.edu.   </t>
+    <t>Alpha level (1 - confidence level)</t>
+  </si>
+  <si>
+    <t>CI, lower bound</t>
+  </si>
+  <si>
+    <t>CI, upper bound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -288,8 +291,6 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -297,6 +298,7 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,7 +861,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,148 +870,152 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="11" t="str">
-        <f>IF(H12="","",(H15+H12-1)/(C12+H12-1))</f>
-        <v/>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.05</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="20" t="str">
-        <f>IF(F16="","",(D12+I12+SUM(F16:F95))/(C12+H12-1)^2)</f>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f>IF(H12="","",(H15+H12-1)/(C12+H12-1))</f>
         <v/>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="str">
-        <f>IF(G3="","",G2-NORMSINV(0.975)*SQRT(G3))</f>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="str">
+        <f>IF(F16="","",(D12+I12+SUM(F16:F95))/(C12+H12-1)^2)</f>
         <v/>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="str">
-        <f>IF(G3="","",G2+NORMSINV(0.975)*SQRT(G3))</f>
+      <c r="G5" s="12" t="str">
+        <f>IF(G4="","",G3-NORMSINV(1-$G$2/2)*SQRT(G4))</f>
         <v/>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="13" t="str">
+        <f>IF(G4="","",G3+NORMSINV(1-$G$2/2)*SQRT(G4))</f>
+        <v/>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="B10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1019,8 +1025,8 @@
         <f>IF(A12="","",B12/A12)</f>
         <v/>
       </c>
-      <c r="D12" s="17" t="str">
-        <f>IF(A12="","",G2^2*C12*(1-C12)/A12)</f>
+      <c r="D12" s="15" t="str">
+        <f>IF(A12="","",G3^2*C12*(1-C12)/A12)</f>
         <v/>
       </c>
       <c r="F12" s="8"/>
@@ -1029,38 +1035,38 @@
         <f>IF(F12="","",1-(G12/F12))</f>
         <v/>
       </c>
-      <c r="I12" s="19" t="str">
-        <f>IF(F12="","",(1-G2)^2*H12*(1-H12)/F12)</f>
+      <c r="I12" s="17" t="str">
+        <f>IF(F12="","",(1-G3)^2*H12*(1-H12)/F12)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H15" s="9" t="str">
         <f>IF(E16="","",SUMPRODUCT(B16:B95,E16:E95))</f>
@@ -2445,7 +2451,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2461,141 +2467,145 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="1" t="s">
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G3" s="11">
         <f>IF(H12="","",(H15+H12-1)/(C12+H12-1))</f>
         <v>0.31457664233576638</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G4" s="19">
         <f>IF(F16="","",(D12+I12+SUM(F16:F95))/(C12+H12-1)^2)</f>
         <v>2.228294749180685E-3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12">
-        <f>IF(G3="","",G2-NORMSINV(0.975)*SQRT(G3))</f>
-        <v>0.22205690109452347</v>
-      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13">
-        <f>IF(G3="","",G2+NORMSINV(0.975)*SQRT(G3))</f>
-        <v>0.40709638357700928</v>
+      <c r="G5" s="12">
+        <f>IF(G4="","",G3-NORMSINV(1-$G$2/2)*SQRT(G4))</f>
+        <v>0.22205690109452347</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="13">
+        <f>IF(G4="","",G3+NORMSINV(1-$G$2/2)*SQRT(G4))</f>
+        <v>0.40709638357700928</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="B10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2609,8 +2619,8 @@
         <f>IF(A12="","",B12/A12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="18">
-        <f>IF(A12="","",G2^2*C12*(1-C12)/A12)</f>
+      <c r="D12" s="16">
+        <f>IF(A12="","",G3^2*C12*(1-C12)/A12)</f>
         <v>0</v>
       </c>
       <c r="F12" s="8">
@@ -2623,38 +2633,38 @@
         <f>IF(F12="","",1-(G12/F12))</f>
         <v>0.98916967509025266</v>
       </c>
-      <c r="I12" s="19">
-        <f>IF(F12="","",(1-G2)^2*H12*(1-H12)/F12)</f>
+      <c r="I12" s="17">
+        <f>IF(F12="","",(1-G3)^2*H12*(1-H12)/F12)</f>
         <v>1.8169806846030277E-5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H15" s="9">
         <f>IF(E16="","",SUMPRODUCT(B16:B95,E16:E95))</f>

--- a/rgStandardized_worksheet.xlsx
+++ b/rgStandardized_worksheet.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelrosin/Dropbox/_UNC/_Draft_Paper1/rgStandardized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelrosin/Desktop/_Paper1/rgStandardized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6CAFDE-789A-B84D-ACDA-8D08CF530869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB6D6F1-0BC1-DF4F-B65A-8452336393D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9FB095F8-04E3-A34D-8D2C-66F28D0EA142}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{9FB095F8-04E3-A34D-8D2C-66F28D0EA142}"/>
   </bookViews>
   <sheets>
     <sheet name="standardized Rogan-Gladen" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Specificity estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">Written by Samuel Rosin to accompany the manuscript “Estimating Seroprevalence of SARS-CoV-2”. These spreadsheets may be shared freely. No warranty is implied about the accuracy of the results. Correspondence to srosin@live.unc.edu.   </t>
-  </si>
-  <si>
     <t>Instructions: Data are entered in the orange input cells and the main results are given at the table at the top-right. Intermediate results are in the grey calculation cells and, except for the estimates of sensitivity and specificity, should not be reported.</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>CI, upper bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation of nonparametric standardized Rogan-Gladen estimator to accompany the manuscript “Estimating Seroprevalence of SARS-CoV-2”. These spreadsheets may be shared freely. No warranty is implied about the accuracy of the results. Correspondence to srosin@live.unc.edu.   </t>
   </si>
 </sst>
 </file>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7198999F-1AC8-5047-B0D4-354D4BA0F3E3}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,7 +879,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -894,7 +894,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="8">
         <v>0.05</v>
@@ -930,13 +930,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="12" t="str">
         <f>IF(G4="","",G3-NORMSINV(1-$G$2/2)*SQRT(G4))</f>
@@ -951,7 +951,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="13" t="str">
         <f>IF(G4="","",G3+NORMSINV(1-$G$2/2)*SQRT(G4))</f>
@@ -2450,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A922FF-4010-A94D-AA12-EC1B97ACAC99}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2467,9 +2467,9 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2484,7 +2484,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="8">
         <v>0.05</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="12">
         <f>IF(G4="","",G3-NORMSINV(1-$G$2/2)*SQRT(G4))</f>
@@ -2541,7 +2541,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="13">
         <f>IF(G4="","",G3+NORMSINV(1-$G$2/2)*SQRT(G4))</f>
